--- a/f1scores_2023.xlsx
+++ b/f1scores_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jesper\f1bet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3632E43-51A8-4F8A-83A1-8EACE7859B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62587F08-310D-4939-93EF-554E03728927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="28800" windowHeight="15150" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="38">
   <si>
     <t>Driver</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Miami</t>
   </si>
 </sst>
 </file>
@@ -560,7 +563,7 @@
   <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,6 +590,9 @@
       <c r="F1" t="s">
         <v>36</v>
       </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -608,7 +614,9 @@
         <f>8+2</f>
         <v>10</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="2">
+        <v>8</v>
+      </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -647,7 +655,9 @@
         <f>5+5</f>
         <v>10</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2">
+        <v>12</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -686,7 +696,9 @@
         <f>25+8</f>
         <v>33</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2">
+        <v>18</v>
+      </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -725,7 +737,9 @@
         <f>18+6</f>
         <v>24</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2">
+        <v>26</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -763,7 +777,9 @@
       <c r="F6" s="2">
         <v>2</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -801,7 +817,9 @@
       <c r="F7" s="2">
         <v>0</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -840,7 +858,9 @@
         <f>12+3</f>
         <v>15</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2">
+        <v>15</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -879,7 +899,9 @@
         <f>6+1</f>
         <v>7</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -917,7 +939,9 @@
       <c r="F10" s="2">
         <v>0</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="2">
+        <v>2</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -955,7 +979,9 @@
       <c r="F11" s="2">
         <v>0</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="2">
+        <v>4</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -994,7 +1020,9 @@
         <f>15+7</f>
         <v>22</v>
       </c>
-      <c r="G12" s="2"/>
+      <c r="G12" s="2">
+        <v>6</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1033,7 +1061,9 @@
         <f>10+4</f>
         <v>14</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="2">
+        <v>10</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1071,7 +1101,9 @@
       <c r="F14" s="2">
         <v>0</v>
       </c>
-      <c r="G14" s="2"/>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1109,7 +1141,9 @@
       <c r="F15" s="2">
         <v>1</v>
       </c>
-      <c r="G15" s="2"/>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -1147,7 +1181,9 @@
       <c r="F16" s="2">
         <v>0</v>
       </c>
-      <c r="G16" s="2"/>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -1185,7 +1221,9 @@
       <c r="F17" s="2">
         <v>0</v>
       </c>
-      <c r="G17" s="2"/>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -1223,7 +1261,9 @@
       <c r="F18" s="2">
         <v>0</v>
       </c>
-      <c r="G18" s="2"/>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -1261,7 +1301,9 @@
       <c r="F19" s="2">
         <v>0</v>
       </c>
-      <c r="G19" s="2"/>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -1299,7 +1341,9 @@
       <c r="F20" s="2">
         <v>0</v>
       </c>
-      <c r="G20" s="2"/>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -1337,7 +1381,9 @@
       <c r="F21" s="2">
         <v>0</v>
       </c>
-      <c r="G21" s="2"/>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -1370,7 +1416,7 @@
   <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1397,6 +1443,9 @@
       <c r="F1" t="s">
         <v>36</v>
       </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1417,7 +1466,9 @@
       <c r="F2" s="2">
         <v>0</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -1455,7 +1506,9 @@
       <c r="F3" s="2">
         <v>7</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1493,7 +1546,9 @@
       <c r="F4" s="2">
         <v>0</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1531,7 +1586,9 @@
       <c r="F5" s="2">
         <v>0</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1569,7 +1626,9 @@
       <c r="F6" s="2">
         <v>0</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1607,7 +1666,9 @@
       <c r="F7" s="2">
         <v>11</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2">
+        <v>14</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1645,7 +1706,9 @@
       <c r="F8" s="2">
         <v>0</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1683,7 +1746,9 @@
       <c r="F9" s="2">
         <v>0</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1721,7 +1786,9 @@
       <c r="F10" s="2">
         <v>13</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="2">
+        <v>12</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1759,7 +1826,9 @@
       <c r="F11" s="2">
         <v>14</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1797,7 +1866,9 @@
       <c r="F12" s="2">
         <v>6</v>
       </c>
-      <c r="G12" s="2"/>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1835,7 +1906,9 @@
       <c r="F13" s="2">
         <v>0</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1873,7 +1946,9 @@
       <c r="F14" s="2">
         <v>20</v>
       </c>
-      <c r="G14" s="2"/>
+      <c r="G14" s="2">
+        <v>20</v>
+      </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1911,7 +1986,9 @@
       <c r="F15" s="2">
         <v>16</v>
       </c>
-      <c r="G15" s="2"/>
+      <c r="G15" s="2">
+        <v>16</v>
+      </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -1949,7 +2026,9 @@
       <c r="F16" s="2">
         <v>12</v>
       </c>
-      <c r="G16" s="2"/>
+      <c r="G16" s="2">
+        <v>13</v>
+      </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -1987,7 +2066,9 @@
       <c r="F17" s="2">
         <v>15</v>
       </c>
-      <c r="G17" s="2"/>
+      <c r="G17" s="2">
+        <v>15</v>
+      </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -2025,7 +2106,9 @@
       <c r="F18" s="2">
         <v>18</v>
       </c>
-      <c r="G18" s="2"/>
+      <c r="G18" s="2">
+        <v>17</v>
+      </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -2063,7 +2146,9 @@
       <c r="F19" s="2">
         <v>0</v>
       </c>
-      <c r="G19" s="2"/>
+      <c r="G19" s="2">
+        <v>11</v>
+      </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -2101,7 +2186,9 @@
       <c r="F20" s="2">
         <v>19</v>
       </c>
-      <c r="G20" s="2"/>
+      <c r="G20" s="2">
+        <v>19</v>
+      </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -2139,7 +2226,9 @@
       <c r="F21" s="2">
         <v>17</v>
       </c>
-      <c r="G21" s="2"/>
+      <c r="G21" s="2">
+        <v>18</v>
+      </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -2172,7 +2261,7 @@
   <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2199,6 +2288,9 @@
       <c r="F1" t="s">
         <v>36</v>
       </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2219,7 +2311,9 @@
       <c r="F2" s="2">
         <v>0</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -2257,7 +2351,9 @@
       <c r="F3" s="2">
         <v>0</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -2295,7 +2391,9 @@
       <c r="F4" s="2">
         <v>0</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2">
+        <v>5</v>
+      </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -2333,7 +2431,9 @@
       <c r="F5" s="2">
         <v>0</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -2371,7 +2471,9 @@
       <c r="F6" s="2">
         <v>0</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2">
+        <v>6</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -2409,7 +2511,9 @@
       <c r="F7" s="2">
         <v>0</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -2447,7 +2551,9 @@
       <c r="F8" s="2">
         <v>0</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -2485,7 +2591,9 @@
       <c r="F9" s="2">
         <v>0</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -2523,7 +2631,9 @@
       <c r="F10" s="2">
         <v>0</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -2561,7 +2671,9 @@
       <c r="F11" s="2">
         <v>0</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>

--- a/f1scores_2023.xlsx
+++ b/f1scores_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jesper\f1bet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62587F08-310D-4939-93EF-554E03728927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1CEDDE-0047-4DC3-9828-BDAC1643E439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="28800" windowHeight="15150" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
   <si>
     <t>Driver</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>Miami</t>
+  </si>
+  <si>
+    <t>Monaco</t>
   </si>
 </sst>
 </file>
@@ -563,7 +566,7 @@
   <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,6 +596,9 @@
       <c r="G1" t="s">
         <v>37</v>
       </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -617,7 +623,9 @@
       <c r="G2" s="2">
         <v>8</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="2">
+        <v>13</v>
+      </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -658,7 +666,9 @@
       <c r="G3" s="2">
         <v>12</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2">
+        <v>10</v>
+      </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -699,7 +709,9 @@
       <c r="G4" s="2">
         <v>18</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -740,7 +752,9 @@
       <c r="G5" s="2">
         <v>26</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="2">
+        <v>25</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -780,7 +794,9 @@
       <c r="G6" s="2">
         <v>0</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -820,7 +836,9 @@
       <c r="G7" s="2">
         <v>0</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -861,7 +879,9 @@
       <c r="G8" s="2">
         <v>15</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2">
+        <v>18</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -902,7 +922,9 @@
       <c r="G9" s="2">
         <v>0</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -942,7 +964,9 @@
       <c r="G10" s="2">
         <v>2</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2">
+        <v>15</v>
+      </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -982,7 +1006,9 @@
       <c r="G11" s="2">
         <v>4</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2">
+        <v>6</v>
+      </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -1023,7 +1049,9 @@
       <c r="G12" s="2">
         <v>6</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2">
+        <v>8</v>
+      </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1064,7 +1092,9 @@
       <c r="G13" s="2">
         <v>10</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2">
+        <v>4</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -1104,7 +1134,9 @@
       <c r="G14" s="2">
         <v>0</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -1144,7 +1176,9 @@
       <c r="G15" s="2">
         <v>0</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -1184,7 +1218,9 @@
       <c r="G16" s="2">
         <v>0</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -1224,7 +1260,9 @@
       <c r="G17" s="2">
         <v>0</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -1264,7 +1302,9 @@
       <c r="G18" s="2">
         <v>1</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -1304,7 +1344,9 @@
       <c r="G19" s="2">
         <v>0</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -1344,7 +1386,9 @@
       <c r="G20" s="2">
         <v>0</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -1384,7 +1428,9 @@
       <c r="G21" s="2">
         <v>0</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -1416,7 +1462,7 @@
   <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1446,6 +1492,9 @@
       <c r="G1" t="s">
         <v>37</v>
       </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1469,7 +1518,9 @@
       <c r="G2" s="2">
         <v>0</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -1509,7 +1560,9 @@
       <c r="G3" s="2">
         <v>0</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -1549,7 +1602,9 @@
       <c r="G4" s="2">
         <v>0</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -1589,7 +1644,9 @@
       <c r="G5" s="2">
         <v>0</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -1629,7 +1686,9 @@
       <c r="G6" s="2">
         <v>0</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -1669,7 +1728,9 @@
       <c r="G7" s="2">
         <v>14</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -1709,7 +1770,9 @@
       <c r="G8" s="2">
         <v>0</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -1749,7 +1812,9 @@
       <c r="G9" s="2">
         <v>0</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -1789,7 +1854,9 @@
       <c r="G10" s="2">
         <v>12</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -1829,7 +1896,9 @@
       <c r="G11" s="2">
         <v>0</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -1869,7 +1938,9 @@
       <c r="G12" s="2">
         <v>0</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1909,7 +1980,9 @@
       <c r="G13" s="2">
         <v>0</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -1949,7 +2022,9 @@
       <c r="G14" s="2">
         <v>20</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2">
+        <v>19</v>
+      </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -1989,7 +2064,9 @@
       <c r="G15" s="2">
         <v>16</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2">
+        <v>16</v>
+      </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -2029,7 +2106,9 @@
       <c r="G16" s="2">
         <v>13</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -2069,7 +2148,9 @@
       <c r="G17" s="2">
         <v>15</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" s="2">
+        <v>15</v>
+      </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -2109,7 +2190,9 @@
       <c r="G18" s="2">
         <v>17</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" s="2">
+        <v>17</v>
+      </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -2149,7 +2232,9 @@
       <c r="G19" s="2">
         <v>11</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -2189,7 +2274,9 @@
       <c r="G20" s="2">
         <v>19</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" s="2">
+        <v>20</v>
+      </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -2229,7 +2316,9 @@
       <c r="G21" s="2">
         <v>18</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -2261,7 +2350,7 @@
   <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2291,6 +2380,9 @@
       <c r="G1" t="s">
         <v>37</v>
       </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2314,7 +2406,9 @@
       <c r="G2" s="2">
         <v>0</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -2354,7 +2448,9 @@
       <c r="G3" s="2">
         <v>0</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -2394,7 +2490,9 @@
       <c r="G4" s="2">
         <v>5</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -2434,7 +2532,9 @@
       <c r="G5" s="2">
         <v>0</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -2474,7 +2574,9 @@
       <c r="G6" s="2">
         <v>6</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -2514,7 +2616,9 @@
       <c r="G7" s="2">
         <v>0</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -2554,7 +2658,9 @@
       <c r="G8" s="2">
         <v>0</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -2594,7 +2700,9 @@
       <c r="G9" s="2">
         <v>0</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -2634,7 +2742,9 @@
       <c r="G10" s="2">
         <v>0</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -2674,7 +2784,9 @@
       <c r="G11" s="2">
         <v>0</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>

--- a/f1scores_2023.xlsx
+++ b/f1scores_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jesper\f1bet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1CEDDE-0047-4DC3-9828-BDAC1643E439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167E49D7-8A63-4B81-B8A6-D2C2CA0D77D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="40">
   <si>
     <t>Driver</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>Monaco</t>
+  </si>
+  <si>
+    <t>Spain</t>
   </si>
 </sst>
 </file>
@@ -565,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,6 +602,9 @@
       <c r="H1" t="s">
         <v>38</v>
       </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -626,7 +632,9 @@
       <c r="H2" s="2">
         <v>13</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="2">
+        <v>18</v>
+      </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -669,7 +677,9 @@
       <c r="H3" s="2">
         <v>10</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="2">
+        <v>15</v>
+      </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -712,7 +722,9 @@
       <c r="H4" s="2">
         <v>0</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="2">
+        <v>12</v>
+      </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -755,7 +767,9 @@
       <c r="H5" s="2">
         <v>25</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2">
+        <v>26</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -797,7 +811,9 @@
       <c r="H6" s="2">
         <v>2</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -839,7 +855,9 @@
       <c r="H7" s="2">
         <v>1</v>
       </c>
-      <c r="I7" s="2"/>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -882,7 +900,9 @@
       <c r="H8" s="2">
         <v>18</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2">
+        <v>6</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -925,7 +945,9 @@
       <c r="H9" s="2">
         <v>0</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2">
+        <v>8</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -967,7 +989,9 @@
       <c r="H10" s="2">
         <v>15</v>
       </c>
-      <c r="I10" s="2"/>
+      <c r="I10" s="2">
+        <v>4</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -1009,7 +1033,9 @@
       <c r="H11" s="2">
         <v>6</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -1052,7 +1078,9 @@
       <c r="H12" s="2">
         <v>8</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -1095,7 +1123,9 @@
       <c r="H13" s="2">
         <v>4</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" s="2">
+        <v>10</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1137,7 +1167,9 @@
       <c r="H14" s="2">
         <v>0</v>
       </c>
-      <c r="I14" s="2"/>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -1179,7 +1211,9 @@
       <c r="H15" s="2">
         <v>0</v>
       </c>
-      <c r="I15" s="2"/>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -1221,7 +1255,9 @@
       <c r="H16" s="2">
         <v>0</v>
       </c>
-      <c r="I16" s="2"/>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -1263,7 +1299,9 @@
       <c r="H17" s="2">
         <v>0</v>
       </c>
-      <c r="I17" s="2"/>
+      <c r="I17" s="2">
+        <v>2</v>
+      </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -1305,7 +1343,9 @@
       <c r="H18" s="2">
         <v>0</v>
       </c>
-      <c r="I18" s="2"/>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -1347,7 +1387,9 @@
       <c r="H19" s="2">
         <v>0</v>
       </c>
-      <c r="I19" s="2"/>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -1389,7 +1431,9 @@
       <c r="H20" s="2">
         <v>0</v>
       </c>
-      <c r="I20" s="2"/>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -1431,7 +1475,9 @@
       <c r="H21" s="2">
         <v>0</v>
       </c>
-      <c r="I21" s="2"/>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -1462,7 +1508,7 @@
   <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1495,6 +1541,9 @@
       <c r="H1" t="s">
         <v>38</v>
       </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1521,7 +1570,9 @@
       <c r="H2" s="2">
         <v>0</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -1563,7 +1614,9 @@
       <c r="H3" s="2">
         <v>0</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -1605,7 +1658,9 @@
       <c r="H4" s="2">
         <v>0</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -1647,7 +1702,9 @@
       <c r="H5" s="2">
         <v>0</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -1689,7 +1746,9 @@
       <c r="H6" s="2">
         <v>0</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -1731,7 +1790,9 @@
       <c r="H7" s="2">
         <v>0</v>
       </c>
-      <c r="I7" s="2"/>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -1773,7 +1834,9 @@
       <c r="H8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -1815,7 +1878,9 @@
       <c r="H9" s="2">
         <v>0</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -1857,7 +1922,9 @@
       <c r="H10" s="2">
         <v>0</v>
       </c>
-      <c r="I10" s="2"/>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -1899,7 +1966,9 @@
       <c r="H11" s="2">
         <v>0</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -1941,7 +2010,9 @@
       <c r="H12" s="2">
         <v>0</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -1983,7 +2054,9 @@
       <c r="H13" s="2">
         <v>0</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -2025,7 +2098,9 @@
       <c r="H14" s="2">
         <v>19</v>
       </c>
-      <c r="I14" s="2"/>
+      <c r="I14" s="2">
+        <v>19</v>
+      </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -2067,7 +2142,9 @@
       <c r="H15" s="2">
         <v>16</v>
       </c>
-      <c r="I15" s="2"/>
+      <c r="I15" s="2">
+        <v>16</v>
+      </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -2109,7 +2186,9 @@
       <c r="H16" s="2">
         <v>0</v>
       </c>
-      <c r="I16" s="2"/>
+      <c r="I16" s="2">
+        <v>14</v>
+      </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -2151,7 +2230,9 @@
       <c r="H17" s="2">
         <v>15</v>
       </c>
-      <c r="I17" s="2"/>
+      <c r="I17" s="2">
+        <v>15</v>
+      </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -2193,7 +2274,9 @@
       <c r="H18" s="2">
         <v>17</v>
       </c>
-      <c r="I18" s="2"/>
+      <c r="I18" s="2">
+        <v>17</v>
+      </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -2235,7 +2318,9 @@
       <c r="H19" s="2">
         <v>0</v>
       </c>
-      <c r="I19" s="2"/>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -2277,7 +2362,9 @@
       <c r="H20" s="2">
         <v>20</v>
       </c>
-      <c r="I20" s="2"/>
+      <c r="I20" s="2">
+        <v>20</v>
+      </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -2319,7 +2406,9 @@
       <c r="H21" s="2">
         <v>0</v>
       </c>
-      <c r="I21" s="2"/>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -2349,8 +2438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2383,6 +2472,9 @@
       <c r="H1" t="s">
         <v>38</v>
       </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2409,7 +2501,9 @@
       <c r="H2" s="2">
         <v>0</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -2451,7 +2545,9 @@
       <c r="H3" s="2">
         <v>0</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -2493,7 +2589,9 @@
       <c r="H4" s="2">
         <v>0</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -2535,7 +2633,9 @@
       <c r="H5" s="2">
         <v>0</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -2577,7 +2677,9 @@
       <c r="H6" s="2">
         <v>0</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -2619,7 +2721,9 @@
       <c r="H7" s="2">
         <v>0</v>
       </c>
-      <c r="I7" s="2"/>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -2661,7 +2765,9 @@
       <c r="H8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -2703,7 +2809,9 @@
       <c r="H9" s="2">
         <v>0</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2">
+        <v>8</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -2745,7 +2853,9 @@
       <c r="H10" s="2">
         <v>0</v>
       </c>
-      <c r="I10" s="2"/>
+      <c r="I10" s="2">
+        <v>7</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -2787,7 +2897,9 @@
       <c r="H11" s="2">
         <v>0</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>

--- a/f1scores_2023.xlsx
+++ b/f1scores_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jesper\f1bet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167E49D7-8A63-4B81-B8A6-D2C2CA0D77D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3291BD-F1B5-476D-B811-2BEEB480A6FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
   <si>
     <t>Driver</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>Spain</t>
+  </si>
+  <si>
+    <t>Canada</t>
   </si>
 </sst>
 </file>
@@ -568,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,6 +608,9 @@
       <c r="I1" t="s">
         <v>39</v>
       </c>
+      <c r="J1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -635,7 +641,9 @@
       <c r="I2" s="2">
         <v>18</v>
       </c>
-      <c r="J2" s="2"/>
+      <c r="J2" s="2">
+        <v>15</v>
+      </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -680,7 +688,9 @@
       <c r="I3" s="2">
         <v>15</v>
       </c>
-      <c r="J3" s="2"/>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -725,7 +735,9 @@
       <c r="I4" s="2">
         <v>12</v>
       </c>
-      <c r="J4" s="2"/>
+      <c r="J4" s="2">
+        <v>9</v>
+      </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -770,7 +782,9 @@
       <c r="I5" s="2">
         <v>26</v>
       </c>
-      <c r="J5" s="2"/>
+      <c r="J5" s="2">
+        <v>25</v>
+      </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -814,7 +828,9 @@
       <c r="I6" s="2">
         <v>0</v>
       </c>
-      <c r="J6" s="2"/>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -858,7 +874,9 @@
       <c r="I7" s="2">
         <v>0</v>
       </c>
-      <c r="J7" s="2"/>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -903,7 +921,9 @@
       <c r="I8" s="2">
         <v>6</v>
       </c>
-      <c r="J8" s="2"/>
+      <c r="J8" s="2">
+        <v>18</v>
+      </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -948,7 +968,9 @@
       <c r="I9" s="2">
         <v>8</v>
       </c>
-      <c r="J9" s="2"/>
+      <c r="J9" s="2">
+        <v>2</v>
+      </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -992,7 +1014,9 @@
       <c r="I10" s="2">
         <v>4</v>
       </c>
-      <c r="J10" s="2"/>
+      <c r="J10" s="2">
+        <v>4</v>
+      </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1036,7 +1060,9 @@
       <c r="I11" s="2">
         <v>1</v>
       </c>
-      <c r="J11" s="2"/>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -1081,7 +1107,9 @@
       <c r="I12" s="2">
         <v>0</v>
       </c>
-      <c r="J12" s="2"/>
+      <c r="J12" s="2">
+        <v>12</v>
+      </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -1126,7 +1154,9 @@
       <c r="I13" s="2">
         <v>10</v>
       </c>
-      <c r="J13" s="2"/>
+      <c r="J13" s="2">
+        <v>10</v>
+      </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -1170,7 +1200,9 @@
       <c r="I14" s="2">
         <v>0</v>
       </c>
-      <c r="J14" s="2"/>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1214,7 +1246,9 @@
       <c r="I15" s="2">
         <v>0</v>
       </c>
-      <c r="J15" s="2"/>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -1258,7 +1292,9 @@
       <c r="I16" s="2">
         <v>0</v>
       </c>
-      <c r="J16" s="2"/>
+      <c r="J16" s="2">
+        <v>1</v>
+      </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -1302,7 +1338,9 @@
       <c r="I17" s="2">
         <v>2</v>
       </c>
-      <c r="J17" s="2"/>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -1346,7 +1384,9 @@
       <c r="I18" s="2">
         <v>0</v>
       </c>
-      <c r="J18" s="2"/>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -1390,7 +1430,9 @@
       <c r="I19" s="2">
         <v>0</v>
       </c>
-      <c r="J19" s="2"/>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -1434,7 +1476,9 @@
       <c r="I20" s="2">
         <v>0</v>
       </c>
-      <c r="J20" s="2"/>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -1478,7 +1522,9 @@
       <c r="I21" s="2">
         <v>0</v>
       </c>
-      <c r="J21" s="2"/>
+      <c r="J21" s="2">
+        <v>6</v>
+      </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -1508,7 +1554,7 @@
   <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1544,6 +1590,9 @@
       <c r="I1" t="s">
         <v>39</v>
       </c>
+      <c r="J1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1573,7 +1622,9 @@
       <c r="I2" s="2">
         <v>0</v>
       </c>
-      <c r="J2" s="2"/>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -1617,7 +1668,9 @@
       <c r="I3" s="2">
         <v>0</v>
       </c>
-      <c r="J3" s="2"/>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -1661,7 +1714,9 @@
       <c r="I4" s="2">
         <v>0</v>
       </c>
-      <c r="J4" s="2"/>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -1705,7 +1760,9 @@
       <c r="I5" s="2">
         <v>0</v>
       </c>
-      <c r="J5" s="2"/>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -1749,7 +1806,9 @@
       <c r="I6" s="2">
         <v>0</v>
       </c>
-      <c r="J6" s="2"/>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -1793,7 +1852,9 @@
       <c r="I7" s="2">
         <v>0</v>
       </c>
-      <c r="J7" s="2"/>
+      <c r="J7" s="2">
+        <v>14</v>
+      </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -1837,7 +1898,9 @@
       <c r="I8" s="2">
         <v>0</v>
       </c>
-      <c r="J8" s="2"/>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1881,7 +1944,9 @@
       <c r="I9" s="2">
         <v>0</v>
       </c>
-      <c r="J9" s="2"/>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -1925,7 +1990,9 @@
       <c r="I10" s="2">
         <v>0</v>
       </c>
-      <c r="J10" s="2"/>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1969,7 +2036,9 @@
       <c r="I11" s="2">
         <v>0</v>
       </c>
-      <c r="J11" s="2"/>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -2013,7 +2082,9 @@
       <c r="I12" s="2">
         <v>0</v>
       </c>
-      <c r="J12" s="2"/>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -2057,7 +2128,9 @@
       <c r="I13" s="2">
         <v>0</v>
       </c>
-      <c r="J13" s="2"/>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -2101,7 +2174,9 @@
       <c r="I14" s="2">
         <v>19</v>
       </c>
-      <c r="J14" s="2"/>
+      <c r="J14" s="2">
+        <v>19</v>
+      </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -2145,7 +2220,9 @@
       <c r="I15" s="2">
         <v>16</v>
       </c>
-      <c r="J15" s="2"/>
+      <c r="J15" s="2">
+        <v>17</v>
+      </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -2189,7 +2266,9 @@
       <c r="I16" s="2">
         <v>14</v>
       </c>
-      <c r="J16" s="2"/>
+      <c r="J16" s="2">
+        <v>15</v>
+      </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -2233,7 +2312,9 @@
       <c r="I17" s="2">
         <v>15</v>
       </c>
-      <c r="J17" s="2"/>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -2277,7 +2358,9 @@
       <c r="I18" s="2">
         <v>17</v>
       </c>
-      <c r="J18" s="2"/>
+      <c r="J18" s="2">
+        <v>18</v>
+      </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -2321,7 +2404,9 @@
       <c r="I19" s="2">
         <v>0</v>
       </c>
-      <c r="J19" s="2"/>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -2365,7 +2450,9 @@
       <c r="I20" s="2">
         <v>20</v>
       </c>
-      <c r="J20" s="2"/>
+      <c r="J20" s="2">
+        <v>20</v>
+      </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -2409,7 +2496,9 @@
       <c r="I21" s="2">
         <v>0</v>
       </c>
-      <c r="J21" s="2"/>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -2438,8 +2527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2475,6 +2564,9 @@
       <c r="I1" t="s">
         <v>39</v>
       </c>
+      <c r="J1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2504,7 +2596,9 @@
       <c r="I2" s="2">
         <v>0</v>
       </c>
-      <c r="J2" s="2"/>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -2548,7 +2642,9 @@
       <c r="I3" s="2">
         <v>0</v>
       </c>
-      <c r="J3" s="2"/>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -2592,7 +2688,9 @@
       <c r="I4" s="2">
         <v>0</v>
       </c>
-      <c r="J4" s="2"/>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -2636,7 +2734,9 @@
       <c r="I5" s="2">
         <v>0</v>
       </c>
-      <c r="J5" s="2"/>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -2680,7 +2780,9 @@
       <c r="I6" s="2">
         <v>0</v>
       </c>
-      <c r="J6" s="2"/>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -2724,7 +2826,9 @@
       <c r="I7" s="2">
         <v>0</v>
       </c>
-      <c r="J7" s="2"/>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -2768,7 +2872,9 @@
       <c r="I8" s="2">
         <v>0</v>
       </c>
-      <c r="J8" s="2"/>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -2812,7 +2918,9 @@
       <c r="I9" s="2">
         <v>8</v>
       </c>
-      <c r="J9" s="2"/>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -2856,7 +2964,9 @@
       <c r="I10" s="2">
         <v>7</v>
       </c>
-      <c r="J10" s="2"/>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -2900,7 +3010,9 @@
       <c r="I11" s="2">
         <v>0</v>
       </c>
-      <c r="J11" s="2"/>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>

--- a/f1scores_2023.xlsx
+++ b/f1scores_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jesper\f1bet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3291BD-F1B5-476D-B811-2BEEB480A6FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F2840B-8D9B-4483-AB7E-4322CD14FD35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="43">
   <si>
     <t>Driver</t>
   </si>
@@ -161,6 +161,12 @@
   </si>
   <si>
     <t>Canada</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Great Britain</t>
   </si>
 </sst>
 </file>
@@ -571,16 +577,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="10" max="10" width="8.42578125" customWidth="1"/>
+    <col min="10" max="10" width="8.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -611,8 +617,14 @@
       <c r="J1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -644,8 +656,12 @@
       <c r="J2" s="2">
         <v>15</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="K2" s="2">
+        <v>4</v>
+      </c>
+      <c r="L2" s="2">
+        <v>15</v>
+      </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -659,7 +675,7 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -691,8 +707,13 @@
       <c r="J3" s="2">
         <v>0</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="K3" s="2">
+        <f>6+1</f>
+        <v>7</v>
+      </c>
+      <c r="L3" s="2">
+        <v>10</v>
+      </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -706,7 +727,7 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -738,8 +759,13 @@
       <c r="J4" s="2">
         <v>9</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="K4" s="2">
+        <f>15+7</f>
+        <v>22</v>
+      </c>
+      <c r="L4" s="2">
+        <v>8</v>
+      </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -753,7 +779,7 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -785,8 +811,13 @@
       <c r="J5" s="2">
         <v>25</v>
       </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="K5" s="2">
+        <f>26+8</f>
+        <v>34</v>
+      </c>
+      <c r="L5" s="2">
+        <v>26</v>
+      </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -800,7 +831,7 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -831,8 +862,12 @@
       <c r="J6" s="2">
         <v>0</v>
       </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="K6" s="2">
+        <v>12</v>
+      </c>
+      <c r="L6" s="2">
+        <v>18</v>
+      </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -846,7 +881,7 @@
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -877,8 +912,12 @@
       <c r="J7" s="2">
         <v>0</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>12</v>
+      </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -892,7 +931,7 @@
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -924,8 +963,13 @@
       <c r="J8" s="2">
         <v>18</v>
       </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="K8" s="2">
+        <f>10+4</f>
+        <v>14</v>
+      </c>
+      <c r="L8" s="2">
+        <v>6</v>
+      </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -939,7 +983,7 @@
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -971,8 +1015,13 @@
       <c r="J9" s="2">
         <v>2</v>
       </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="K9" s="2">
+        <f>2+5</f>
+        <v>7</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -986,7 +1035,7 @@
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1017,8 +1066,13 @@
       <c r="J10" s="2">
         <v>4</v>
       </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="K10" s="2">
+        <f>0+2</f>
+        <v>2</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1032,7 +1086,7 @@
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -1063,8 +1117,12 @@
       <c r="J11" s="2">
         <v>0</v>
       </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1078,7 +1136,7 @@
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -1110,8 +1168,12 @@
       <c r="J12" s="2">
         <v>12</v>
       </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="K12" s="2">
+        <v>18</v>
+      </c>
+      <c r="L12" s="2">
+        <v>2</v>
+      </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -1125,7 +1187,7 @@
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -1157,8 +1219,13 @@
       <c r="J13" s="2">
         <v>10</v>
       </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+      <c r="K13" s="2">
+        <f>8+6</f>
+        <v>14</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1</v>
+      </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -1172,7 +1239,7 @@
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -1203,8 +1270,12 @@
       <c r="J14" s="2">
         <v>0</v>
       </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -1218,7 +1289,7 @@
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -1249,8 +1320,12 @@
       <c r="J15" s="2">
         <v>0</v>
       </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -1264,7 +1339,7 @@
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -1295,8 +1370,12 @@
       <c r="J16" s="2">
         <v>1</v>
       </c>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -1310,7 +1389,7 @@
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -1341,8 +1420,12 @@
       <c r="J17" s="2">
         <v>0</v>
       </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -1356,7 +1439,7 @@
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -1387,8 +1470,12 @@
       <c r="J18" s="2">
         <v>0</v>
       </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -1402,7 +1489,7 @@
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -1433,8 +1520,13 @@
       <c r="J19" s="2">
         <v>0</v>
       </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
+      <c r="K19" s="2">
+        <f>0+3</f>
+        <v>3</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -1448,7 +1540,7 @@
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -1479,8 +1571,12 @@
       <c r="J20" s="2">
         <v>0</v>
       </c>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -1494,7 +1590,7 @@
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -1525,8 +1621,12 @@
       <c r="J21" s="2">
         <v>6</v>
       </c>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <v>4</v>
+      </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -1553,16 +1653,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="9" max="9" width="8.140625" customWidth="1"/>
+    <col min="9" max="9" width="8.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1593,8 +1693,14 @@
       <c r="J1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1625,8 +1731,12 @@
       <c r="J2" s="2">
         <v>0</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1640,7 +1750,7 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1671,8 +1781,12 @@
       <c r="J3" s="2">
         <v>0</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="K3" s="2">
+        <v>7</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1686,7 +1800,7 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1717,8 +1831,12 @@
       <c r="J4" s="2">
         <v>0</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1732,7 +1850,7 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1763,8 +1881,12 @@
       <c r="J5" s="2">
         <v>0</v>
       </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1778,7 +1900,7 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1809,8 +1931,12 @@
       <c r="J6" s="2">
         <v>0</v>
       </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1824,7 +1950,7 @@
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1855,8 +1981,12 @@
       <c r="J7" s="2">
         <v>14</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+      <c r="K7" s="2">
+        <v>14</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1870,7 +2000,7 @@
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1901,8 +2031,12 @@
       <c r="J8" s="2">
         <v>0</v>
       </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1916,7 +2050,7 @@
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1947,8 +2081,12 @@
       <c r="J9" s="2">
         <v>0</v>
       </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1962,7 +2100,7 @@
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1993,8 +2131,12 @@
       <c r="J10" s="2">
         <v>0</v>
       </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2008,7 +2150,7 @@
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -2039,8 +2181,12 @@
       <c r="J11" s="2">
         <v>0</v>
       </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2054,7 +2200,7 @@
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -2085,8 +2231,12 @@
       <c r="J12" s="2">
         <v>0</v>
       </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="K12" s="2">
+        <v>6</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2100,7 +2250,7 @@
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -2131,8 +2281,12 @@
       <c r="J13" s="2">
         <v>0</v>
       </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2146,7 +2300,7 @@
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -2177,8 +2331,12 @@
       <c r="J14" s="2">
         <v>19</v>
       </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="K14" s="2">
+        <v>20</v>
+      </c>
+      <c r="L14" s="2">
+        <v>20</v>
+      </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2192,7 +2350,7 @@
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -2223,8 +2381,12 @@
       <c r="J15" s="2">
         <v>17</v>
       </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
+      <c r="K15" s="2">
+        <v>17</v>
+      </c>
+      <c r="L15" s="2">
+        <v>17</v>
+      </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2238,7 +2400,7 @@
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -2269,8 +2431,12 @@
       <c r="J16" s="2">
         <v>15</v>
       </c>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
+      <c r="K16" s="2">
+        <v>15</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2284,7 +2450,7 @@
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -2315,8 +2481,12 @@
       <c r="J17" s="2">
         <v>0</v>
       </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2330,7 +2500,7 @@
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -2361,8 +2531,12 @@
       <c r="J18" s="2">
         <v>18</v>
       </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
+      <c r="K18" s="2">
+        <v>18</v>
+      </c>
+      <c r="L18" s="2">
+        <v>18</v>
+      </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2376,7 +2550,7 @@
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -2407,8 +2581,12 @@
       <c r="J19" s="2">
         <v>0</v>
       </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2422,7 +2600,7 @@
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -2453,8 +2631,12 @@
       <c r="J20" s="2">
         <v>20</v>
       </c>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
+      <c r="K20" s="2">
+        <v>19</v>
+      </c>
+      <c r="L20" s="2">
+        <v>19</v>
+      </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -2468,7 +2650,7 @@
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -2499,8 +2681,12 @@
       <c r="J21" s="2">
         <v>0</v>
       </c>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -2525,18 +2711,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:X12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -2567,8 +2753,14 @@
       <c r="J1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -2599,8 +2791,12 @@
       <c r="J2" s="2">
         <v>0</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -2614,7 +2810,7 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -2645,8 +2841,12 @@
       <c r="J3" s="2">
         <v>0</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2660,7 +2860,7 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -2691,8 +2891,12 @@
       <c r="J4" s="2">
         <v>0</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2706,7 +2910,7 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
@@ -2737,8 +2941,12 @@
       <c r="J5" s="2">
         <v>0</v>
       </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2752,7 +2960,7 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -2783,8 +2991,12 @@
       <c r="J6" s="2">
         <v>0</v>
       </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -2798,7 +3010,7 @@
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -2829,8 +3041,12 @@
       <c r="J7" s="2">
         <v>0</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -2844,7 +3060,7 @@
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -2875,8 +3091,12 @@
       <c r="J8" s="2">
         <v>0</v>
       </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -2890,7 +3110,7 @@
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,8 +3141,12 @@
       <c r="J9" s="2">
         <v>0</v>
       </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2936,7 +3160,7 @@
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
@@ -2967,8 +3191,12 @@
       <c r="J10" s="2">
         <v>0</v>
       </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>8</v>
+      </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2982,7 +3210,7 @@
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
@@ -3013,8 +3241,12 @@
       <c r="J11" s="2">
         <v>0</v>
       </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>7</v>
+      </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3028,6 +3260,9 @@
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
     </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="L12" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/f1scores_2023.xlsx
+++ b/f1scores_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jesper\f1bet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F2840B-8D9B-4483-AB7E-4322CD14FD35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8133B573-2EC4-48A6-AF92-A9A957EB0436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="46">
   <si>
     <t>Driver</t>
   </si>
@@ -167,6 +167,15 @@
   </si>
   <si>
     <t>Great Britain</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belgium </t>
+  </si>
+  <si>
+    <t>Belgium</t>
   </si>
 </sst>
 </file>
@@ -578,15 +587,15 @@
   <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="8.453125" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -623,8 +632,14 @@
       <c r="L1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="M1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -662,8 +677,13 @@
       <c r="L2" s="2">
         <v>15</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
+      <c r="M2" s="2">
+        <v>12</v>
+      </c>
+      <c r="N2" s="2">
+        <f>2+13</f>
+        <v>15</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
@@ -675,7 +695,7 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -714,8 +734,13 @@
       <c r="L3" s="2">
         <v>10</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
+      <c r="M3" s="2">
+        <v>8</v>
+      </c>
+      <c r="N3" s="2">
+        <f>1+8</f>
+        <v>9</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
@@ -727,7 +752,7 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -766,8 +791,12 @@
       <c r="L4" s="2">
         <v>8</v>
       </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
+      <c r="M4" s="2">
+        <v>15</v>
+      </c>
+      <c r="N4" s="2">
+        <v>18</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -779,7 +808,7 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -818,8 +847,13 @@
       <c r="L5" s="2">
         <v>26</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+      <c r="M5" s="2">
+        <v>26</v>
+      </c>
+      <c r="N5" s="2">
+        <f>8+25</f>
+        <v>33</v>
+      </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -831,7 +865,7 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -868,8 +902,13 @@
       <c r="L6" s="2">
         <v>18</v>
       </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+      <c r="M6" s="2">
+        <v>18</v>
+      </c>
+      <c r="N6" s="2">
+        <f>3+6</f>
+        <v>9</v>
+      </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -881,7 +920,7 @@
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -918,8 +957,13 @@
       <c r="L7" s="2">
         <v>12</v>
       </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
+      <c r="M7" s="2">
+        <v>10</v>
+      </c>
+      <c r="N7" s="2">
+        <f>7</f>
+        <v>7</v>
+      </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
@@ -931,7 +975,7 @@
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -970,8 +1014,12 @@
       <c r="L8" s="2">
         <v>6</v>
       </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
+      <c r="M8" s="2">
+        <v>2</v>
+      </c>
+      <c r="N8" s="2">
+        <v>10</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -983,7 +1031,7 @@
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1022,8 +1070,12 @@
       <c r="L9" s="2">
         <v>0</v>
       </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
+      <c r="M9" s="2">
+        <v>1</v>
+      </c>
+      <c r="N9" s="2">
+        <v>2</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -1035,7 +1087,7 @@
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1073,8 +1125,12 @@
       <c r="L10" s="2">
         <v>0</v>
       </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>4</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -1086,7 +1142,7 @@
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -1123,8 +1179,13 @@
       <c r="L11" s="2">
         <v>0</v>
       </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <f>6</f>
+        <v>6</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
@@ -1136,7 +1197,7 @@
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -1174,8 +1235,13 @@
       <c r="L12" s="2">
         <v>2</v>
       </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+      <c r="M12" s="2">
+        <v>6</v>
+      </c>
+      <c r="N12" s="2">
+        <f>4+15</f>
+        <v>19</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -1187,7 +1253,7 @@
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -1226,8 +1292,13 @@
       <c r="L13" s="2">
         <v>1</v>
       </c>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+      <c r="M13" s="2">
+        <v>4</v>
+      </c>
+      <c r="N13" s="2">
+        <f>5</f>
+        <v>5</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -1239,7 +1310,7 @@
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -1276,8 +1347,12 @@
       <c r="L14" s="2">
         <v>0</v>
       </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
@@ -1289,7 +1364,7 @@
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -1326,8 +1401,12 @@
       <c r="L15" s="2">
         <v>0</v>
       </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>1</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -1339,7 +1418,7 @@
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -1376,8 +1455,12 @@
       <c r="L16" s="2">
         <v>0</v>
       </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
@@ -1389,7 +1472,7 @@
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -1426,8 +1509,12 @@
       <c r="L17" s="2">
         <v>0</v>
       </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
@@ -1439,7 +1526,7 @@
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -1476,8 +1563,12 @@
       <c r="L18" s="2">
         <v>0</v>
       </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
@@ -1489,7 +1580,7 @@
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -1527,8 +1618,12 @@
       <c r="L19" s="2">
         <v>0</v>
       </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
@@ -1540,7 +1635,7 @@
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -1577,8 +1672,12 @@
       <c r="L20" s="2">
         <v>0</v>
       </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
@@ -1590,7 +1689,7 @@
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -1627,8 +1726,12 @@
       <c r="L21" s="2">
         <v>4</v>
       </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
@@ -1651,18 +1754,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X21"/>
+  <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="8.1796875" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1699,8 +1802,14 @@
       <c r="L1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="M1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1737,8 +1846,12 @@
       <c r="L2" s="2">
         <v>0</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
@@ -1750,7 +1863,7 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1787,8 +1900,12 @@
       <c r="L3" s="2">
         <v>0</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>6</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
@@ -1800,7 +1917,7 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1837,8 +1954,12 @@
       <c r="L4" s="2">
         <v>0</v>
       </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -1850,7 +1971,7 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1887,8 +2008,12 @@
       <c r="L5" s="2">
         <v>0</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -1900,7 +2025,7 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1937,8 +2062,12 @@
       <c r="L6" s="2">
         <v>0</v>
       </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -1950,7 +2079,7 @@
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1987,8 +2116,12 @@
       <c r="L7" s="2">
         <v>0</v>
       </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
@@ -2000,7 +2133,7 @@
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -2037,8 +2170,12 @@
       <c r="L8" s="2">
         <v>0</v>
       </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -2050,7 +2187,7 @@
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -2087,8 +2224,12 @@
       <c r="L9" s="2">
         <v>0</v>
       </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -2100,7 +2241,7 @@
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -2137,8 +2278,12 @@
       <c r="L10" s="2">
         <v>0</v>
       </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -2150,7 +2295,7 @@
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -2187,8 +2332,12 @@
       <c r="L11" s="2">
         <v>0</v>
       </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
@@ -2200,7 +2349,7 @@
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -2237,8 +2386,12 @@
       <c r="L12" s="2">
         <v>0</v>
       </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>5</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -2250,7 +2403,7 @@
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -2287,8 +2440,12 @@
       <c r="L13" s="2">
         <v>0</v>
       </c>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -2300,7 +2457,7 @@
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -2337,8 +2494,12 @@
       <c r="L14" s="2">
         <v>20</v>
       </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+      <c r="M14" s="2">
+        <v>20</v>
+      </c>
+      <c r="N14" s="2">
+        <v>20</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
@@ -2350,7 +2511,7 @@
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -2387,8 +2548,12 @@
       <c r="L15" s="2">
         <v>17</v>
       </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+      <c r="M15" s="2">
+        <v>17</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -2400,7 +2565,7 @@
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -2437,8 +2602,12 @@
       <c r="L16" s="2">
         <v>0</v>
       </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
@@ -2450,7 +2619,7 @@
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -2487,8 +2656,12 @@
       <c r="L17" s="2">
         <v>0</v>
       </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
@@ -2500,7 +2673,7 @@
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -2537,8 +2710,12 @@
       <c r="L18" s="2">
         <v>18</v>
       </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+      <c r="M18" s="2">
+        <v>18</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
@@ -2550,7 +2727,7 @@
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -2587,8 +2764,12 @@
       <c r="L19" s="2">
         <v>0</v>
       </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
@@ -2600,7 +2781,7 @@
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -2637,8 +2818,12 @@
       <c r="L20" s="2">
         <v>19</v>
       </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+      <c r="M20" s="2">
+        <v>19</v>
+      </c>
+      <c r="N20" s="2">
+        <v>19</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
@@ -2650,7 +2835,7 @@
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -2687,8 +2872,12 @@
       <c r="L21" s="2">
         <v>0</v>
       </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
@@ -2699,6 +2888,9 @@
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2713,16 +2905,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.54296875" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -2759,8 +2951,14 @@
       <c r="L1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="M1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -2797,8 +2995,12 @@
       <c r="L2" s="2">
         <v>0</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
@@ -2810,7 +3012,7 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -2847,8 +3049,12 @@
       <c r="L3" s="2">
         <v>0</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
@@ -2860,7 +3066,7 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -2897,8 +3103,12 @@
       <c r="L4" s="2">
         <v>0</v>
       </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -2910,7 +3120,7 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
@@ -2947,8 +3157,12 @@
       <c r="L5" s="2">
         <v>0</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -2960,7 +3174,7 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -2997,8 +3211,12 @@
       <c r="L6" s="2">
         <v>0</v>
       </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -3010,7 +3228,7 @@
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -3047,8 +3265,12 @@
       <c r="L7" s="2">
         <v>0</v>
       </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
@@ -3060,7 +3282,7 @@
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -3097,8 +3319,12 @@
       <c r="L8" s="2">
         <v>0</v>
       </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -3110,7 +3336,7 @@
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
@@ -3147,8 +3373,12 @@
       <c r="L9" s="2">
         <v>0</v>
       </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -3160,7 +3390,7 @@
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
@@ -3197,8 +3427,12 @@
       <c r="L10" s="2">
         <v>8</v>
       </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
+      <c r="M10" s="2">
+        <v>8</v>
+      </c>
+      <c r="N10" s="2">
+        <v>8</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -3210,7 +3444,7 @@
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
@@ -3247,8 +3481,12 @@
       <c r="L11" s="2">
         <v>7</v>
       </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="M11" s="2">
+        <v>7</v>
+      </c>
+      <c r="N11" s="2">
+        <v>7</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
@@ -3260,7 +3498,7 @@
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="L12" s="2"/>
     </row>
   </sheetData>
